--- a/Payroll tools/WorkHoursCertificates/teachers.xlsx
+++ b/Payroll tools/WorkHoursCertificates/teachers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage\public\BLATSIOS\Projects\Python\[GIT]\Payroll tools\WorkHoursCertificates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Χάρης\Desktop\GIT\Payroll tools\WorkHoursCertificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
